--- a/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-15T14:47:29+00:00</t>
+    <t>2023-06-15T14:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-15T14:49:28+00:00</t>
+    <t>2023-06-16T07:04:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T07:04:24+00:00</t>
+    <t>2023-06-16T16:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T16:51:58+00:00</t>
+    <t>2023-06-20T15:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/kereval/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-20T15:57:11+00:00</t>
+    <t>2023-06-22T06:17:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
